--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2168529.247016557</v>
+        <v>2166641.665500156</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>207.179193920011</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,10 +674,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>147.2631865772708</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>15.67129869336543</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>208.3423105940807</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>43.37721679582195</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>195.4755619138955</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>127.004412707233</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>335.3205472884566</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>160.375190926352</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>59.7268375758684</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>139.6528551206851</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,16 +1531,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>95.7785032849267</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>200.5701849660521</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>36.52626964552638</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,22 +1813,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>76.56542964295366</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>31.42218700821061</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2059,7 +2059,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>243.0082126459105</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.932713005352416</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>45.44210896004785</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>101.2898147863555</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,10 +2536,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>31.53167077398985</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>5.908038455239033</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,10 +2719,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>139.6970786618128</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2956,19 +2956,19 @@
         <v>93.41221638965538</v>
       </c>
       <c r="E31" t="n">
-        <v>91.2307060180122</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437427</v>
+        <v>39.72583251028595</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897916</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571503</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523584</v>
+        <v>54.76109577523583</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550463</v>
@@ -3007,13 +3007,13 @@
         <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
         <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>152.9223916220945</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
         <v>163.3813967235378</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522982</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692937</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3518,10 +3518,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>460.6001392292213</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="C2" t="n">
-        <v>460.6001392292213</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D2" t="n">
-        <v>460.6001392292213</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2548.398397505828</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2294.636612143919</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>1963.573724800349</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1610.805069530235</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X2" t="n">
-        <v>1237.339311269155</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y2" t="n">
-        <v>847.1999792933431</v>
+        <v>764.7444956504007</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,13 +4410,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.6822058285749</v>
+        <v>69.77257646012751</v>
       </c>
       <c r="C4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V4" t="n">
-        <v>517.6822058285749</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W4" t="n">
-        <v>517.6822058285749</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="X4" t="n">
-        <v>517.6822058285749</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="Y4" t="n">
-        <v>517.6822058285749</v>
+        <v>69.77257646012751</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>802.0401021781393</v>
+        <v>1061.921889775366</v>
       </c>
       <c r="C5" t="n">
-        <v>433.0775852377275</v>
+        <v>1061.921889775366</v>
       </c>
       <c r="D5" t="n">
-        <v>74.81188663097703</v>
+        <v>1061.921889775366</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>676.1336371771217</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>265.1477323875142</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>251.2243283261051</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2499.699028478934</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U5" t="n">
-        <v>2245.937243117025</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>1914.874355773455</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>1562.105700503341</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X5" t="n">
-        <v>1188.639942242261</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y5" t="n">
-        <v>1188.639942242261</v>
+        <v>1448.521729839488</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1512.612574238668</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C8" t="n">
-        <v>1143.650057298256</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D8" t="n">
-        <v>785.3843586915057</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>399.5961060932614</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>392.650605344058</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278601</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="X8" t="n">
-        <v>2289.351746278601</v>
+        <v>2105.214675620634</v>
       </c>
       <c r="Y8" t="n">
-        <v>1899.21241430279</v>
+        <v>1715.075343644822</v>
       </c>
     </row>
     <row r="9">
@@ -4878,19 +4878,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>195.0064718412585</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>195.0064718412585</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,34 +5057,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>177.1795914149474</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>326.2492756170072</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>940.1463453738959</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864554</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1402.170307643835</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1402.170307643835</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1402.170307643835</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U13" t="n">
-        <v>1402.170307643835</v>
+        <v>761.5395953944299</v>
       </c>
       <c r="V13" t="n">
-        <v>1402.170307643835</v>
+        <v>506.855107188543</v>
       </c>
       <c r="W13" t="n">
-        <v>1112.753137606874</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X13" t="n">
-        <v>1112.753137606874</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y13" t="n">
-        <v>891.9605584633442</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,10 +5276,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5358,22 +5358,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864554</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.857683528586</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O15" t="n">
-        <v>2208.321444831246</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>565.00109608247</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C16" t="n">
-        <v>396.0649131545631</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>396.0649131545631</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>396.0649131545631</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>396.0649131545631</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5437,7 +5437,7 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
         <v>507.4972331799364</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1421.577452736738</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262961</v>
+        <v>1421.577452736738</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.210845262961</v>
+        <v>1132.448813950296</v>
       </c>
       <c r="V16" t="n">
-        <v>1075.210845262961</v>
+        <v>877.7643257444088</v>
       </c>
       <c r="W16" t="n">
-        <v>785.7936752260001</v>
+        <v>877.7643257444088</v>
       </c>
       <c r="X16" t="n">
-        <v>785.7936752260001</v>
+        <v>649.7747748463914</v>
       </c>
       <c r="Y16" t="n">
-        <v>565.00109608247</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5501,64 +5501,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>208.7516828383384</v>
+        <v>128.956674296862</v>
       </c>
       <c r="C19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247857</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383439</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>429.5442619818684</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>429.5442619818684</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X19" t="n">
-        <v>429.5442619818684</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="Y19" t="n">
-        <v>208.7516828383384</v>
+        <v>310.6051391271017</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5750,7 +5750,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514082</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2520.760934363149</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>734.3105644220434</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C22" t="n">
-        <v>565.3743814941365</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D22" t="n">
-        <v>415.2577420818008</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>267.3446484994076</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>267.3446484994076</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>99.16932681922769</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>99.16932681922769</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,7 +5914,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
         <v>779.063975947119</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1142.020036873616</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.78763177146</v>
+        <v>1142.020036873616</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655735</v>
+        <v>887.3355486677287</v>
       </c>
       <c r="W22" t="n">
-        <v>955.1031435655735</v>
+        <v>597.9183786307682</v>
       </c>
       <c r="X22" t="n">
-        <v>955.1031435655735</v>
+        <v>597.9183786307682</v>
       </c>
       <c r="Y22" t="n">
-        <v>734.3105644220434</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>218.4033802145335</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>367.4730644165934</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>614.2381923230575</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>921.5583256030193</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.96990386717</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085867</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>413.0432218861031</v>
+        <v>199.5300356889278</v>
       </c>
       <c r="C25" t="n">
-        <v>244.1070389581962</v>
+        <v>199.5300356889278</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>199.5300356889278</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>199.5300356889278</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6145,16 +6145,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688075</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799369</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247866</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.78763177146</v>
+        <v>675.0071030383448</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655734</v>
+        <v>420.3226148324579</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286129</v>
+        <v>420.3226148324579</v>
       </c>
       <c r="X25" t="n">
-        <v>633.8358010296332</v>
+        <v>420.3226148324579</v>
       </c>
       <c r="Y25" t="n">
-        <v>413.0432218861031</v>
+        <v>199.5300356889278</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6221,13 +6221,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,34 +6236,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211724</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011341</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2486.320249703574</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>524.5778132641557</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C28" t="n">
-        <v>355.6416303362487</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D28" t="n">
-        <v>355.6416303362487</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655736</v>
+        <v>709.451253618899</v>
       </c>
       <c r="W28" t="n">
-        <v>665.6859735286131</v>
+        <v>420.0340835819384</v>
       </c>
       <c r="X28" t="n">
-        <v>524.5778132641557</v>
+        <v>420.0340835819384</v>
       </c>
       <c r="Y28" t="n">
-        <v>524.5778132641557</v>
+        <v>420.0340835819384</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,28 +6446,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6482,7 +6482,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6543,25 +6543,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>806.1650729342614</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1113.485206214223</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1443.347833878256</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>656.2176762508398</v>
+        <v>439.5324299542165</v>
       </c>
       <c r="C31" t="n">
-        <v>543.0423586043036</v>
+        <v>326.3571123076803</v>
       </c>
       <c r="D31" t="n">
-        <v>448.6865844733385</v>
+        <v>232.0013381767153</v>
       </c>
       <c r="E31" t="n">
-        <v>356.5343561723161</v>
+        <v>232.0013381767153</v>
       </c>
       <c r="F31" t="n">
-        <v>265.4052739557764</v>
+        <v>191.8742346309719</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569677</v>
+        <v>191.8742346309719</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864671</v>
@@ -6625,10 +6625,10 @@
         <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667506</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962049</v>
+        <v>997.6688721962047</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
@@ -6646,7 +6646,7 @@
         <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096192</v>
       </c>
       <c r="T31" t="n">
         <v>1568.628130167069</v>
@@ -6655,16 +6655,16 @@
         <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1335.260356661998</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>1101.604051906408</v>
+        <v>902.6804289818917</v>
       </c>
       <c r="X31" t="n">
-        <v>947.1369896618683</v>
+        <v>730.4517433652451</v>
       </c>
       <c r="Y31" t="n">
-        <v>782.1052757997088</v>
+        <v>565.4200295030855</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6680,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6722,13 +6722,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>1206.718781115524</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>2292.946699347401</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2497.96918012961</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108339</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222968</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506734</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,7 +6853,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,31 +6877,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025264</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859418</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045221</v>
+        <v>924.2611010045215</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901033</v>
+        <v>772.2886129010324</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,43 +6920,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7014,22 +7014,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7072,31 +7072,31 @@
         <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525396</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254953</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
         <v>709.848946864969</v>
@@ -7135,7 +7135,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
         <v>772.2886129010315</v>
@@ -7166,16 +7166,16 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7190,10 +7190,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>177.1795914149474</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>326.2492756170072</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>940.1463453738959</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210312</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982968</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525397</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,31 +7351,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,40 +7476,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506732</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254956</v>
@@ -7816,7 +7816,7 @@
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
@@ -7831,7 +7831,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>38.86002301949895</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8778,19 +8778,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>199.7396287231153</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,10 +9006,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>20.63789864135413</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>124.3400780863231</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>349.7653003338567</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>15.83804904622824</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>80.50021372615151</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,19 +9726,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>50.62661940943553</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>148.2747143566559</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,19 +10425,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>288.4091825776757</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>38.86002301949951</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,16 +10671,16 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>20.63789864135487</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>38.86002301949895</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>32.92248665775651</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>165.9802687929765</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,16 +23419,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>14.18584911886609</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>85.66716743252523</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>129.9672988178512</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,22 +23701,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>121.3553803406496</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>135.8246340904172</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>9.12943067791752</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>108.4865324589193</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>176.1054520983414</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>44.13123323657572</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>194.1779846150473</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>173.9239417266983</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,10 +24607,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24619,7 +24619,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>86.01257672722431</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.2307060180122</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>50.49195888408832</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897916</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571502</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,13 +24895,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>17.58400713838572</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1.575699570821598e-12</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-8.668621376273222e-13</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>854970.3543669375</v>
+        <v>854970.3543669374</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>854970.3543669375</v>
+        <v>854970.3543669374</v>
       </c>
     </row>
     <row r="11">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
+        <v>554203.1946583909</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583908</v>
       </c>
-      <c r="D2" t="n">
-        <v>554203.1946583909</v>
-      </c>
       <c r="E2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.230645907</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.230645907</v>
       </c>
       <c r="G2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="H2" t="n">
         <v>527889.2306459069</v>
@@ -26338,22 +26338,22 @@
         <v>527889.2306459069</v>
       </c>
       <c r="K2" t="n">
-        <v>549209.8854161141</v>
+        <v>549209.8854161144</v>
       </c>
       <c r="L2" t="n">
-        <v>554203.1946583906</v>
+        <v>554203.1946583908</v>
       </c>
       <c r="M2" t="n">
-        <v>554203.1946583906</v>
+        <v>554203.1946583907</v>
       </c>
       <c r="N2" t="n">
-        <v>554203.1946583907</v>
+        <v>554203.1946583908</v>
       </c>
       <c r="O2" t="n">
         <v>554203.1946583907</v>
       </c>
       <c r="P2" t="n">
-        <v>554203.1946583908</v>
+        <v>554203.1946583907</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284557</v>
+        <v>44162.60530284541</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086698</v>
+        <v>10342.90680086696</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284554</v>
+        <v>44162.60530284556</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143906</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143907</v>
       </c>
       <c r="H4" t="n">
         <v>15045.66962143911</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.66962143907</v>
       </c>
       <c r="K4" t="n">
         <v>33210.29213563561</v>
       </c>
       <c r="L4" t="n">
+        <v>37464.45686275963</v>
+      </c>
+      <c r="M4" t="n">
         <v>37464.45686275959</v>
       </c>
-      <c r="M4" t="n">
-        <v>37464.4568627596</v>
-      </c>
       <c r="N4" t="n">
-        <v>37464.4568627596</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275964</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275958</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26485,19 +26485,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26506,10 +26506,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-275398.7208707852</v>
+        <v>-275398.7208707851</v>
       </c>
       <c r="C6" t="n">
         <v>314569.1583437588</v>
       </c>
       <c r="D6" t="n">
-        <v>314569.1583437589</v>
+        <v>314569.1583437587</v>
       </c>
       <c r="E6" t="n">
-        <v>-104303.8014011451</v>
+        <v>-104401.2605271169</v>
       </c>
       <c r="F6" t="n">
-        <v>420856.2350757511</v>
+        <v>420758.775949779</v>
       </c>
       <c r="G6" t="n">
-        <v>420856.2350757513</v>
+        <v>420758.7759497793</v>
       </c>
       <c r="H6" t="n">
-        <v>420856.2350757511</v>
+        <v>420758.7759497789</v>
       </c>
       <c r="I6" t="n">
-        <v>420856.2350757513</v>
+        <v>420758.7759497791</v>
       </c>
       <c r="J6" t="n">
-        <v>244433.0158831582</v>
+        <v>244335.556757186</v>
       </c>
       <c r="K6" t="n">
-        <v>375208.7794474101</v>
+        <v>375190.2857094762</v>
       </c>
       <c r="L6" t="n">
-        <v>408680.7251747387</v>
+        <v>408680.7251747389</v>
       </c>
       <c r="M6" t="n">
-        <v>284222.6167417684</v>
+        <v>284222.6167417686</v>
       </c>
       <c r="N6" t="n">
-        <v>419023.6319756057</v>
+        <v>419023.6319756059</v>
       </c>
       <c r="O6" t="n">
         <v>419023.6319756057</v>
       </c>
       <c r="P6" t="n">
-        <v>374861.0266727603</v>
+        <v>374861.0266727601</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="3">
@@ -26738,13 +26738,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26753,13 +26753,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,22 +26932,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>55.20325662855697</v>
+      </c>
+      <c r="L2" t="n">
+        <v>12.9286335010837</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>55.20325662855696</v>
-      </c>
-      <c r="L2" t="n">
-        <v>12.92863350108373</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>55.20325662855692</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855697</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>175.5546477434695</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>69.18513378038702</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27537,16 +27537,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>151.5755224052624</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,16 +27594,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>43.79533272974726</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>280.5455559685352</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>20.97275844376227</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>85.14112624278593</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>78.46362273233842</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>209.355909752117</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>78.93179823140972</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.954490531843357e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28798,22 +28798,22 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855697</v>
       </c>
     </row>
     <row r="32">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30238,10 +30238,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>80.77020197440561</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35495,19 +35495,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>532.9342021211282</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>269.8956035973785</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504663</v>
@@ -35741,10 +35741,10 @@
         <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>331.4334930178478</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>599.023005289881</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
@@ -35978,13 +35978,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>103.8510818313024</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>122.4103926810582</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>138.6396521945097</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>397.5324193126801</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36923,16 +36923,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>537.6668875337</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
@@ -37166,7 +37166,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>126.8730558045736</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37391,16 +37391,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>331.0622756918211</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>80.77020197440561</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37871,16 +37871,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>315.2861888988646</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38108,16 +38108,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>253.9933015780506</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
